--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321AFD07-75C3-411D-9240-3F21483904B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF2A4C-08CB-4F39-AC75-73B932AEC59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>int</t>
   </si>
@@ -86,13 +86,7 @@
     <t>礼包2</t>
   </si>
   <si>
-    <t>2|1</t>
-  </si>
-  <si>
     <t>礼包3</t>
-  </si>
-  <si>
-    <t>1|3</t>
   </si>
   <si>
     <t>300|300</t>
@@ -129,18 +123,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|131|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0|40000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|106|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0|20000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -149,27 +135,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|62|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>100000|0|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|0|25|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0|5000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>100|2000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -572,13 +546,13 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="13.28515625" style="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
     <col min="6" max="7" width="13.28515625" style="8"/>
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
@@ -669,10 +643,10 @@
         <v>174803</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -692,10 +666,10 @@
         <v>174803</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -706,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>900</v>
@@ -715,13 +689,13 @@
         <v>174824</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -729,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>1200</v>
@@ -738,10 +712,10 @@
         <v>174824</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>600</v>
@@ -752,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>1800</v>
@@ -761,10 +735,10 @@
         <v>174824</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="8">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>600</v>
@@ -775,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>2400</v>
@@ -784,10 +758,10 @@
         <v>174837</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>600</v>
@@ -798,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>3000</v>
@@ -807,10 +781,10 @@
         <v>174837</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>600</v>
@@ -821,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>3600</v>
@@ -830,10 +804,10 @@
         <v>174837</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>600</v>
@@ -844,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>4500</v>
@@ -853,10 +827,10 @@
         <v>174804</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="8">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>600</v>
@@ -867,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>5400</v>
@@ -876,10 +850,10 @@
         <v>174804</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>600</v>
@@ -890,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>7200</v>
@@ -899,10 +873,10 @@
         <v>174804</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>600</v>
@@ -913,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>10800</v>
@@ -922,10 +896,10 @@
         <v>174804</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="8">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>600</v>
@@ -940,13 +914,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -959,8 +926,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -969,7 +943,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFF2A4C-08CB-4F39-AC75-73B932AEC59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001B7F7-9065-4510-BAF4-D95884C8C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>int</t>
   </si>
@@ -119,31 +119,43 @@
     <t>礼包12</t>
   </si>
   <si>
-    <t>0|60000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|40000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|20000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>0|10000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100000|0|0|0</t>
+    <t>100|1000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|5000|0|0</t>
+    <t>0|2000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100|2000|0|0</t>
+    <t>0|3000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|4000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000|0|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|6000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|7000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|8000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|9000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +558,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -643,7 +655,7 @@
         <v>174803</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -666,7 +678,7 @@
         <v>174803</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -712,7 +724,7 @@
         <v>174824</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -735,7 +747,7 @@
         <v>174824</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -758,7 +770,7 @@
         <v>174837</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -781,7 +793,7 @@
         <v>174837</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -804,7 +816,7 @@
         <v>174837</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -827,7 +839,7 @@
         <v>174804</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -850,7 +862,7 @@
         <v>174804</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -873,7 +885,7 @@
         <v>174804</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -914,6 +926,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -926,15 +945,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -943,7 +955,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0001B7F7-9065-4510-BAF4-D95884C8C495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05356333-2E82-4505-9ED7-69A53F6066DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>int</t>
   </si>
@@ -119,43 +119,44 @@
     <t>礼包12</t>
   </si>
   <si>
-    <t>0|10000|0|0</t>
+    <t>15000|1000|0|0</t>
+  </si>
+  <si>
+    <t>20000|1500|0|0</t>
+  </si>
+  <si>
+    <t>30000|2000|0|0</t>
+  </si>
+  <si>
+    <t>40000|2500|0|0</t>
+  </si>
+  <si>
+    <t>50000|3000|0|0</t>
+  </si>
+  <si>
+    <t>50000|4000|0|0</t>
+  </si>
+  <si>
+    <t>50000|5000|0|0</t>
+  </si>
+  <si>
+    <t>500|100|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100|1000|0|0</t>
+    <t>3000|300|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|2000|0|0</t>
+    <t>10000|600|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|3000|0|0</t>
+    <t>6000|500|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>0|4000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000|0|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|6000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|7000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|8000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|9000|0|0</t>
+    <t>1000|200|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +559,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -649,13 +650,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D5" s="1">
         <v>174803</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -672,13 +673,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="D6" s="1">
         <v>174803</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -701,7 +702,7 @@
         <v>174824</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -718,13 +719,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="D8" s="1">
         <v>174824</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -741,13 +742,13 @@
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D9" s="1">
         <v>174824</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -764,13 +765,13 @@
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2400</v>
+        <v>7200</v>
       </c>
       <c r="D10" s="1">
         <v>174837</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -787,13 +788,13 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>3000</v>
+        <v>10800</v>
       </c>
       <c r="D11" s="1">
         <v>174837</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -810,13 +811,13 @@
         <v>26</v>
       </c>
       <c r="C12" s="1">
-        <v>3600</v>
+        <v>18000</v>
       </c>
       <c r="D12" s="1">
         <v>174837</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -833,13 +834,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>4500</v>
+        <v>28800</v>
       </c>
       <c r="D13" s="1">
         <v>174804</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -856,13 +857,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>5400</v>
+        <v>43200</v>
       </c>
       <c r="D14" s="1">
         <v>174804</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -879,13 +880,13 @@
         <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>7200</v>
+        <v>61200</v>
       </c>
       <c r="D15" s="1">
         <v>174804</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -902,13 +903,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="1">
-        <v>10800</v>
+        <v>86400</v>
       </c>
       <c r="D16" s="1">
         <v>174804</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -926,13 +927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -945,8 +939,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -955,7 +956,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05356333-2E82-4505-9ED7-69A53F6066DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9B9CC-901D-4D3D-AB17-1D8743A30CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,44 +119,51 @@
     <t>礼包12</t>
   </si>
   <si>
-    <t>15000|1000|0|0</t>
-  </si>
-  <si>
-    <t>20000|1500|0|0</t>
+    <t>1000|200|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000|400|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000|600|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000|1000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000|1200|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>30000|2000|0|0</t>
-  </si>
-  <si>
-    <t>40000|2500|0|0</t>
-  </si>
-  <si>
-    <t>50000|3000|0|0</t>
-  </si>
-  <si>
-    <t>50000|4000|0|0</t>
-  </si>
-  <si>
-    <t>50000|5000|0|0</t>
-  </si>
-  <si>
-    <t>500|100|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000|300|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000|600|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000|500|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000|200|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000|3000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000|4000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000|5000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000|6000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000|8000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000|10000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +566,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -656,7 +663,7 @@
         <v>174803</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -679,7 +686,7 @@
         <v>174803</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -702,7 +709,7 @@
         <v>174824</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -725,7 +732,7 @@
         <v>174824</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -748,7 +755,7 @@
         <v>174824</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -771,7 +778,7 @@
         <v>174837</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -794,7 +801,7 @@
         <v>174837</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -817,7 +824,7 @@
         <v>174837</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -840,7 +847,7 @@
         <v>174804</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -863,7 +870,7 @@
         <v>174804</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -886,7 +893,7 @@
         <v>174804</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -909,7 +916,7 @@
         <v>174804</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -927,6 +934,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -939,15 +953,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -956,7 +963,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA9B9CC-901D-4D3D-AB17-1D8743A30CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7E865-EC2D-4C36-BF4B-71227142067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,26 +119,6 @@
     <t>礼包12</t>
   </si>
   <si>
-    <t>1000|200|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000|400|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000|600|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12000|1000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000|1200|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>30000|2000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -164,6 +144,26 @@
   </si>
   <si>
     <t>100000|10000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500|200|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000|400|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000|600|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000|1000|0|0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>27500|1200|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +566,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -663,7 +663,7 @@
         <v>174803</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>174803</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>174824</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -732,7 +732,7 @@
         <v>174824</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>174824</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>174837</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>174837</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>174837</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>174804</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>174804</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>174804</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>174804</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -934,13 +934,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -953,8 +946,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD7E865-EC2D-4C36-BF4B-71227142067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB2C72-A97F-4E15-BD43-39ACC92F2B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>int</t>
   </si>
@@ -95,75 +95,19 @@
     <t>礼包4</t>
   </si>
   <si>
-    <t>礼包5</t>
-  </si>
-  <si>
-    <t>礼包6</t>
-  </si>
-  <si>
-    <t>礼包7</t>
-  </si>
-  <si>
-    <t>礼包8</t>
-  </si>
-  <si>
-    <t>礼包9</t>
-  </si>
-  <si>
-    <t>礼包10</t>
-  </si>
-  <si>
-    <t>礼包11</t>
-  </si>
-  <si>
-    <t>礼包12</t>
-  </si>
-  <si>
-    <t>30000|2000|0|0</t>
+    <t>500|100|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>40000|3000|0|0</t>
+    <t>1000|200|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000|4000|0|0</t>
+    <t>2000|300|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>80000|5000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000|6000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000|8000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000|10000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500|200|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000|400|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000|600|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000|1000|0|0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>27500|1200|0|0</t>
+    <t>3500|400|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -657,13 +601,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1">
         <v>174803</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -680,13 +624,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1">
         <v>174803</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -703,13 +647,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>900</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1">
         <v>174824</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -726,202 +670,18 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="D8" s="1">
         <v>174824</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="1">
-        <v>174824</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7200</v>
-      </c>
-      <c r="D10" s="1">
-        <v>174837</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
-        <v>10800</v>
-      </c>
-      <c r="D11" s="1">
-        <v>174837</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1">
-        <v>18000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>174837</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1">
-        <v>28800</v>
-      </c>
-      <c r="D13" s="1">
-        <v>174804</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43200</v>
-      </c>
-      <c r="D14" s="1">
-        <v>174804</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>61200</v>
-      </c>
-      <c r="D15" s="1">
-        <v>174804</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>86400</v>
-      </c>
-      <c r="D16" s="1">
-        <v>174804</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
         <v>600</v>
       </c>
     </row>
@@ -934,6 +694,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -946,27 +713,20 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
+++ b/pet-simulator/Excel/TimeReward_在线奖励表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB2C72-A97F-4E15-BD43-39ACC92F2B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC4487F-9855-415A-A1E9-CE547DA12343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,19 +95,19 @@
     <t>礼包4</t>
   </si>
   <si>
-    <t>500|100|0|0</t>
+    <t>5000|2000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1000|200|0|0</t>
+    <t>5500|2200|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000|300|0|0</t>
+    <t>6000|2400|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>3500|400|0|0</t>
+    <t>7000|3000|0|0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +510,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -518,7 +518,7 @@
     <col min="1" max="4" width="13.28515625" style="1"/>
     <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
     <col min="6" max="7" width="13.28515625" style="8"/>
-    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="1023" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -601,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1">
         <v>174803</v>
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1">
         <v>174803</v>
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D7" s="1">
         <v>174824</v>
@@ -670,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="D8" s="1">
         <v>174824</v>
@@ -694,13 +694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -713,20 +706,27 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>